--- a/megatech-clone-admin/public/templates/products-import-template-multilang.xlsx
+++ b/megatech-clone-admin/public/templates/products-import-template-multilang.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\fullStack\ecomerce john\megatech\megatech-clone-admin\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6A0797-E9DB-4125-A4C0-3B07AC610B75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC9678F-0109-4C7A-9438-313E367E2EFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="1245" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$N$1:$N$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
   <si>
     <t>name_ka</t>
   </si>
@@ -61,18 +61,6 @@
     <t>salePrice</t>
   </si>
   <si>
-    <t>sku</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>description_ka</t>
   </si>
   <si>
@@ -100,33 +88,6 @@
     <t>usage_ru</t>
   </si>
   <si>
-    <t>hairType_ka</t>
-  </si>
-  <si>
-    <t>hairType_en</t>
-  </si>
-  <si>
-    <t>hairType_ru</t>
-  </si>
-  <si>
-    <t>skinType_ka</t>
-  </si>
-  <si>
-    <t>skinType_en</t>
-  </si>
-  <si>
-    <t>skinType_ru</t>
-  </si>
-  <si>
-    <t>tags_ka</t>
-  </si>
-  <si>
-    <t>tags_en</t>
-  </si>
-  <si>
-    <t>tags_ru</t>
-  </si>
-  <si>
     <t>images</t>
   </si>
   <si>
@@ -223,39 +184,6 @@
     <t>Очищение лица</t>
   </si>
   <si>
-    <t>SKU-001</t>
-  </si>
-  <si>
-    <t>SKU-002</t>
-  </si>
-  <si>
-    <t>SKU-003</t>
-  </si>
-  <si>
-    <t>1234567890123</t>
-  </si>
-  <si>
-    <t>1234567890456</t>
-  </si>
-  <si>
-    <t>1234567890789</t>
-  </si>
-  <si>
-    <t>250ml</t>
-  </si>
-  <si>
-    <t>200ml</t>
-  </si>
-  <si>
-    <t>150ml</t>
-  </si>
-  <si>
-    <t>unisex</t>
-  </si>
-  <si>
-    <t>women</t>
-  </si>
-  <si>
     <t>ნაზი შამპუნი ყოველდღიური გამოყენებისთვის</t>
   </si>
   <si>
@@ -413,75 +341,6 @@
   </si>
   <si>
     <t>Использовать 2 раза в день</t>
-  </si>
-  <si>
-    <t>მშრალი, დაზიანებული</t>
-  </si>
-  <si>
-    <t>მშრალი</t>
-  </si>
-  <si>
-    <t>dry, damaged</t>
-  </si>
-  <si>
-    <t>dry</t>
-  </si>
-  <si>
-    <t>сухие, поврежденные</t>
-  </si>
-  <si>
-    <t>сухие</t>
-  </si>
-  <si>
-    <t>ნორმალური</t>
-  </si>
-  <si>
-    <t>მგრძნობიარე, ნორმალური</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>sensitive, normal</t>
-  </si>
-  <si>
-    <t>нормальная</t>
-  </si>
-  <si>
-    <t>чувствительная, нормальная</t>
-  </si>
-  <si>
-    <t>სულფატ-ფრი, ყოველდღიური</t>
-  </si>
-  <si>
-    <t>დატენიანება</t>
-  </si>
-  <si>
-    <t>სუფთა კანი</t>
-  </si>
-  <si>
-    <t>sulfate-free, daily</t>
-  </si>
-  <si>
-    <t>hydrating</t>
-  </si>
-  <si>
-    <t>clean skin</t>
-  </si>
-  <si>
-    <t>без сульфатов, ежедневный</t>
-  </si>
-  <si>
-    <t>увлажнение</t>
-  </si>
-  <si>
-    <t>чистая кожа</t>
-  </si>
-  <si>
-    <t>1234567890124</t>
-  </si>
-  <si>
-    <t>1234567890125</t>
   </si>
   <si>
     <t>https://res.cloudinary.com/dixl1gf5w/image/upload/v1771360465/products/1234567890123-2.png,https://res.cloudinary.com/dixl1gf5w/image/upload/v1771360464/products/1234567890123-1.png</t>
@@ -569,16 +428,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -918,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,29 +791,19 @@
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="88.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +843,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1025,76 +870,37 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K2">
         <v>29.9</v>
@@ -1103,105 +909,66 @@
         <v>24.9</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="s">
         <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="W2" t="s">
-        <v>112</v>
-      </c>
-      <c r="X2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>153</v>
-      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>34.5</v>
@@ -1210,105 +977,66 @@
         <v>29.9</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>151</v>
+        <v>54</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
       </c>
       <c r="O3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" t="s">
         <v>72</v>
-      </c>
-      <c r="P3" t="s">
-        <v>75</v>
       </c>
       <c r="Q3" t="s">
         <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U3" t="s">
-        <v>102</v>
-      </c>
-      <c r="V3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="W3" t="s">
-        <v>113</v>
-      </c>
-      <c r="X3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>154</v>
-      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K4">
         <v>19.899999999999999</v>
@@ -1317,105 +1045,66 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>152</v>
+        <v>55</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
       </c>
       <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s">
         <v>73</v>
-      </c>
-      <c r="P4" t="s">
-        <v>75</v>
       </c>
       <c r="Q4" t="s">
         <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U4" t="s">
-        <v>103</v>
-      </c>
-      <c r="V4" t="s">
+        <v>102</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="W4" t="s">
-        <v>114</v>
-      </c>
-      <c r="X4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>155</v>
-      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>29.9</v>
@@ -1424,105 +1113,66 @@
         <v>24.9</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U5" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" t="s">
+        <v>103</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="W5" t="s">
-        <v>115</v>
-      </c>
-      <c r="X5" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>156</v>
-      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>34.5</v>
@@ -1531,105 +1181,66 @@
         <v>29.9</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U6" t="s">
         <v>104</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="W6" t="s">
-        <v>116</v>
-      </c>
-      <c r="X6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>157</v>
-      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K7">
         <v>19.899999999999999</v>
@@ -1638,81 +1249,42 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="N7" t="s">
+        <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U7" t="s">
         <v>105</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="W7" t="s">
-        <v>117</v>
-      </c>
-      <c r="X7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AI2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="AI3" r:id="rId2" xr:uid="{C9BFA68D-11FD-4314-9580-49DB8F665F8C}"/>
-    <hyperlink ref="AI5" r:id="rId3" xr:uid="{69BFA8D6-8001-4A65-9C90-1B482D12AC94}"/>
-    <hyperlink ref="AI7" r:id="rId4" xr:uid="{FA696640-083E-4A73-9577-F31AD3BBC05F}"/>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V3" r:id="rId2" xr:uid="{C9BFA68D-11FD-4314-9580-49DB8F665F8C}"/>
+    <hyperlink ref="V5" r:id="rId3" xr:uid="{69BFA8D6-8001-4A65-9C90-1B482D12AC94}"/>
+    <hyperlink ref="V7" r:id="rId4" xr:uid="{FA696640-083E-4A73-9577-F31AD3BBC05F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
